--- a/wiktionary_pie.xlsx
+++ b/wiktionary_pie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\conlangs\pie-logographs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7296597E-6DA7-41C9-A0B4-3EB7843292C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1155C196-E810-48E7-A54F-1A65D0BFCEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="3993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5426" uniqueCount="3996">
   <si>
     <t>headword</t>
   </si>
@@ -12002,6 +12002,15 @@
   </si>
   <si>
     <t>奔</t>
+  </si>
+  <si>
+    <t>爲</t>
+  </si>
+  <si>
+    <t>象</t>
+  </si>
+  <si>
+    <t>及</t>
   </si>
 </sst>
 </file>
@@ -12377,8 +12386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12470,7 +12479,7 @@
       <c r="D5" t="s">
         <v>1132</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>3821</v>
       </c>
     </row>
@@ -12504,7 +12513,7 @@
       <c r="D7" t="s">
         <v>1132</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -12895,7 +12904,7 @@
       <c r="D30" t="s">
         <v>1554</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -13150,7 +13159,7 @@
       <c r="D45" t="s">
         <v>1554</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>1555</v>
       </c>
     </row>
@@ -13626,7 +13635,7 @@
       <c r="D73" t="s">
         <v>1132</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>2829</v>
       </c>
     </row>
@@ -13711,7 +13720,7 @@
       <c r="D78" t="s">
         <v>6</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -16305,6 +16314,9 @@
       <c r="A262" t="s">
         <v>3147</v>
       </c>
+      <c r="B262" t="s">
+        <v>3993</v>
+      </c>
       <c r="C262" t="s">
         <v>3148</v>
       </c>
@@ -19063,13 +19075,16 @@
       <c r="A459" t="s">
         <v>3822</v>
       </c>
+      <c r="B459" t="s">
+        <v>3994</v>
+      </c>
       <c r="C459" t="s">
         <v>3823</v>
       </c>
       <c r="D459" t="s">
         <v>1132</v>
       </c>
-      <c r="E459" t="s">
+      <c r="E459" s="2" t="s">
         <v>3824</v>
       </c>
     </row>
@@ -29143,19 +29158,25 @@
       <c r="A1179" t="s">
         <v>3535</v>
       </c>
+      <c r="B1179" t="s">
+        <v>3995</v>
+      </c>
       <c r="C1179" t="s">
         <v>3536</v>
       </c>
       <c r="D1179" t="s">
         <v>1132</v>
       </c>
-      <c r="E1179" t="s">
+      <c r="E1179" s="2" t="s">
         <v>3537</v>
       </c>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
         <v>3439</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>3995</v>
       </c>
       <c r="C1180" t="s">
         <v>3440</v>
@@ -31364,6 +31385,14 @@
     <hyperlink ref="E65" r:id="rId29" xr:uid="{7A198013-C68D-4E9A-9CA1-A8D8E14F3886}"/>
     <hyperlink ref="E46" r:id="rId30" xr:uid="{D54D5FF5-7F6C-4548-AA96-B764D05C3301}"/>
     <hyperlink ref="E72" r:id="rId31" xr:uid="{15E725B1-D8B1-44EA-B6C0-62552959F33F}"/>
+    <hyperlink ref="E459" r:id="rId32" xr:uid="{104D386D-C1ED-4623-A46C-1C24F21E1042}"/>
+    <hyperlink ref="E1179" r:id="rId33" xr:uid="{87553B4A-5D94-4B6D-A106-2F3D6175FF29}"/>
+    <hyperlink ref="E78" r:id="rId34" xr:uid="{2D2281F8-6430-4A17-A665-B9658D4A6962}"/>
+    <hyperlink ref="E73" r:id="rId35" xr:uid="{088FC244-D1B9-4D8D-A8C4-1A5314A06C02}"/>
+    <hyperlink ref="E45" r:id="rId36" xr:uid="{B0CAAFDF-0416-4637-A7F2-90641B19EB36}"/>
+    <hyperlink ref="E30" r:id="rId37" xr:uid="{EDA104D8-160D-4FBA-A697-ECE12E23AB85}"/>
+    <hyperlink ref="E5" r:id="rId38" xr:uid="{185BB955-EE69-44E7-9D47-DDE90FD64C52}"/>
+    <hyperlink ref="E7" r:id="rId39" xr:uid="{29A658ED-6262-4EA4-8938-995E43967046}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wiktionary_pie.xlsx
+++ b/wiktionary_pie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\conlangs\pie-logographs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1155C196-E810-48E7-A54F-1A65D0BFCEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6355EEB9-BC82-42FA-9A3F-7590C984806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="2325" windowWidth="15375" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12386,8 +12386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12615,7 +12615,7 @@
       <c r="D13" t="s">
         <v>1132</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>2215</v>
       </c>
     </row>
@@ -12785,7 +12785,7 @@
       <c r="D23" t="s">
         <v>1132</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>3176</v>
       </c>
     </row>
@@ -13346,7 +13346,7 @@
       <c r="D56" t="s">
         <v>1591</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>1794</v>
       </c>
     </row>
@@ -31393,6 +31393,9 @@
     <hyperlink ref="E30" r:id="rId37" xr:uid="{EDA104D8-160D-4FBA-A697-ECE12E23AB85}"/>
     <hyperlink ref="E5" r:id="rId38" xr:uid="{185BB955-EE69-44E7-9D47-DDE90FD64C52}"/>
     <hyperlink ref="E7" r:id="rId39" xr:uid="{29A658ED-6262-4EA4-8938-995E43967046}"/>
+    <hyperlink ref="E56" r:id="rId40" xr:uid="{3E1416A8-7186-416D-A6EC-ACD11A9082F4}"/>
+    <hyperlink ref="E13" r:id="rId41" xr:uid="{89F556BB-EA69-43AB-B565-DD6A8F25981C}"/>
+    <hyperlink ref="E23" r:id="rId42" xr:uid="{C7ED0E7A-7C60-4C89-A84D-45D4BB4E6DD3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wiktionary_pie.xlsx
+++ b/wiktionary_pie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\conlangs\pie-logographs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6355EEB9-BC82-42FA-9A3F-7590C984806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E6ECF9-3131-422C-AA59-33F29846888C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2325" windowWidth="15375" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="6945" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12386,8 +12386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13839,7 +13839,7 @@
       <c r="D85" t="s">
         <v>430</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -31396,6 +31396,7 @@
     <hyperlink ref="E56" r:id="rId40" xr:uid="{3E1416A8-7186-416D-A6EC-ACD11A9082F4}"/>
     <hyperlink ref="E13" r:id="rId41" xr:uid="{89F556BB-EA69-43AB-B565-DD6A8F25981C}"/>
     <hyperlink ref="E23" r:id="rId42" xr:uid="{C7ED0E7A-7C60-4C89-A84D-45D4BB4E6DD3}"/>
+    <hyperlink ref="E85" r:id="rId43" xr:uid="{DB929ACA-C8F1-4CC2-9584-9C7C42697E20}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wiktionary_pie.xlsx
+++ b/wiktionary_pie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\conlangs\pie-logographs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E6ECF9-3131-422C-AA59-33F29846888C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E1FDB-734E-4F3C-B95F-F4072DC6FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="6945" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20670" yWindow="7995" windowWidth="20370" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5426" uniqueCount="3996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="4001">
   <si>
     <t>headword</t>
   </si>
@@ -12011,6 +12011,21 @@
   </si>
   <si>
     <t>及</t>
+  </si>
+  <si>
+    <t>直</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>兒</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>心+毛？</t>
   </si>
 </sst>
 </file>
@@ -12386,8 +12401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A1251" workbookViewId="0">
+      <selection activeCell="C1265" sqref="C1265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13934,13 +13949,16 @@
       <c r="A92" t="s">
         <v>1299</v>
       </c>
+      <c r="B92" t="s">
+        <v>3998</v>
+      </c>
       <c r="C92" t="s">
         <v>1300</v>
       </c>
       <c r="D92" t="s">
         <v>430</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>1301</v>
       </c>
     </row>
@@ -16236,7 +16254,7 @@
       <c r="D256" t="s">
         <v>430</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="2" t="s">
         <v>737</v>
       </c>
     </row>
@@ -17157,6 +17175,9 @@
       <c r="A322" t="s">
         <v>2566</v>
       </c>
+      <c r="B322" t="s">
+        <v>3997</v>
+      </c>
       <c r="C322" t="s">
         <v>2567</v>
       </c>
@@ -22256,6 +22277,9 @@
       <c r="A686" t="s">
         <v>3489</v>
       </c>
+      <c r="B686" t="s">
+        <v>3996</v>
+      </c>
       <c r="C686" t="s">
         <v>3490</v>
       </c>
@@ -22270,6 +22294,9 @@
       <c r="A687" t="s">
         <v>1861</v>
       </c>
+      <c r="B687" t="s">
+        <v>3996</v>
+      </c>
       <c r="C687" t="s">
         <v>1862</v>
       </c>
@@ -22284,6 +22311,9 @@
       <c r="A688" t="s">
         <v>1320</v>
       </c>
+      <c r="B688" t="s">
+        <v>3996</v>
+      </c>
       <c r="C688" t="s">
         <v>1321</v>
       </c>
@@ -22298,13 +22328,16 @@
       <c r="A689" t="s">
         <v>960</v>
       </c>
+      <c r="B689" t="s">
+        <v>3996</v>
+      </c>
       <c r="C689" t="s">
         <v>961</v>
       </c>
       <c r="D689" t="s">
         <v>430</v>
       </c>
-      <c r="E689" t="s">
+      <c r="E689" s="2" t="s">
         <v>962</v>
       </c>
     </row>
@@ -22312,6 +22345,9 @@
       <c r="A690" t="s">
         <v>139</v>
       </c>
+      <c r="B690" t="s">
+        <v>3996</v>
+      </c>
       <c r="C690" t="s">
         <v>140</v>
       </c>
@@ -28682,6 +28718,9 @@
       <c r="A1145" t="s">
         <v>779</v>
       </c>
+      <c r="B1145" t="s">
+        <v>3999</v>
+      </c>
       <c r="C1145" t="s">
         <v>780</v>
       </c>
@@ -30304,7 +30343,7 @@
       <c r="D1260" t="s">
         <v>1132</v>
       </c>
-      <c r="E1260" t="s">
+      <c r="E1260" s="2" t="s">
         <v>2014</v>
       </c>
     </row>
@@ -30368,13 +30407,16 @@
       <c r="A1265" t="s">
         <v>2462</v>
       </c>
+      <c r="B1265" t="s">
+        <v>4000</v>
+      </c>
       <c r="C1265" t="s">
         <v>2463</v>
       </c>
       <c r="D1265" t="s">
         <v>1132</v>
       </c>
-      <c r="E1265" t="s">
+      <c r="E1265" s="2" t="s">
         <v>2464</v>
       </c>
     </row>
@@ -31397,6 +31439,11 @@
     <hyperlink ref="E13" r:id="rId41" xr:uid="{89F556BB-EA69-43AB-B565-DD6A8F25981C}"/>
     <hyperlink ref="E23" r:id="rId42" xr:uid="{C7ED0E7A-7C60-4C89-A84D-45D4BB4E6DD3}"/>
     <hyperlink ref="E85" r:id="rId43" xr:uid="{DB929ACA-C8F1-4CC2-9584-9C7C42697E20}"/>
+    <hyperlink ref="E689" r:id="rId44" xr:uid="{70EBA705-4DCE-4413-8E84-19953950FFDE}"/>
+    <hyperlink ref="E256" r:id="rId45" xr:uid="{DEAEC7E2-24F5-4023-88E3-32AB24982CCD}"/>
+    <hyperlink ref="E92" r:id="rId46" xr:uid="{54F093F0-2AEB-4486-83F5-5785F943A8FA}"/>
+    <hyperlink ref="E1260" r:id="rId47" xr:uid="{1464F93D-1CB7-46A2-BC92-53B34E37B47E}"/>
+    <hyperlink ref="E1265" r:id="rId48" xr:uid="{7237C2CB-4F04-432C-BB8B-26FF65E9F060}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
